--- a/REGULAR/CTO/VIDALLO, WINNIE R..xlsx
+++ b/REGULAR/CTO/VIDALLO, WINNIE R..xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="111">
   <si>
     <t>PERIOD</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>1/30,31, 2/1,2,3</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1404,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A88" activePane="bottomLeft"/>
       <selection activeCell="C104" sqref="C104"/>
-      <selection pane="bottomLeft" activeCell="E96" sqref="E96"/>
+      <selection pane="bottomLeft" activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,7 +1567,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>66.444999999999993</v>
+        <v>65.444999999999993</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3333,11 +3336,15 @@
       <c r="A89" s="40">
         <v>44682</v>
       </c>
-      <c r="B89" s="20"/>
+      <c r="B89" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="C89" s="13">
         <v>1.25</v>
       </c>
-      <c r="D89" s="39"/>
+      <c r="D89" s="39">
+        <v>1</v>
+      </c>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
       <c r="G89" s="13">
@@ -3347,7 +3354,9 @@
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
+      <c r="K89" s="49">
+        <v>44686</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
